--- a/pred_ohlcv/54_21/2019-10-22 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 BCH ohlcv.xlsx
@@ -4526,7 +4526,7 @@
         <v>-537.1881689499999</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-530.4881689499998</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-539.0881689499998</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-538.5658689499999</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-540.4346689499998</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-487.8697689499998</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-508.9616689499998</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-433.9193689499998</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-416.3274689499998</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-400.3312689499998</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-403.4421689499998</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-403.4521689499998</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-435.1421689499998</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-435.1421689499998</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-434.4321689499998</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-394.1724689499998</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-328.4486097999999</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-328.4626097999999</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-328.4626097999999</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-327.0608098</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-327.8824097999999</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-325.8685098</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-322.6425098</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-322.6425098</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-322.4894098</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-318.1894098</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-320.2044098</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-344.7947098</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-344.7947098</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-344.7947098</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-321.9398098</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-322.5878098</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-322.58327808</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-341.30937808</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-341.30937808</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-311.32277808</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-316.70417808</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-195.33514276</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-207.71364276</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-207.71364276</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-226.23444276</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-226.28234276</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-147.10364276</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-166.9569427599999</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-166.9569427599999</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-173.8315427599999</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-158.2961427599999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1366.37023138</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1525.56033138</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1866.03493138</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>2445.30873138</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>2167.24330897</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1878.37669781</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>2105.03379781</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>2259.91489781</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>2251.98280151</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>2096.66640151</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2007.07720151</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1612.73802729</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>1673.447864939999</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>2162.43688576</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>2194.25338576</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>2144.49368576</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>2028.86338555</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>2045.00948534</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>2042.05568534</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>2041.25568534</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>2049.33848534</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>2047.58478534</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>2053.14178534</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>2052.55588534</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>1965.44168534</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>2008.58668534</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>2035.14918534</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>2057.24318534</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>2115.44908534</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>2099.34908534</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>2099.34908534</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>2099.34908534</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>2113.63708534</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>2093.70308534</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>2079.42538534</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>2083.01738534</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>2107.25508534</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>2122.25508534</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>2134.75368534</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>2127.38188534</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>2127.38188534</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>2142.38188534</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>2114.34858534</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>2114.40858534</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>2114.40858534</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>2114.40858534</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>2114.66378534</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>2075.26318534</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>2098.11688534</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>2039.07768534</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>2031.962385340001</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>2081.78688534</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>2081.78688534</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>2081.78688534</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>2081.78688534</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>2133.92558534</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>2143.55818534</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>2164.361785340001</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>2167.361785340001</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>2171.53478534</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>2171.53478534</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>2166.86208534</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>2186.54368534</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>2186.54368534</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>2186.54368534</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>2181.44748534</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>2181.43448534</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>2192.765033</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>2192.765033</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>2168.990833</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>2168.990833</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>2170.934733000001</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>2191.380733</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>2191.247433</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>2195.257733</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>2195.257733</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>2195.251433</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>2206.431433</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>2207.433033</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>2203.487933</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>2249.17834368</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>2278.96854368</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>2278.96854368</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>2284.70954368</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>2290.70954368</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>2214.23194368</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>2255.15304368</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>2255.15304368</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>2255.15304368</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>2255.15304368</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>2263.00744368</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>2263.00744368</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>2263.00744368</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>2286.55014368</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>2285.36624368</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>2246.75214368</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>2204.75214368</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>2204.75214368</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>2116.33474368</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>2104.55834368</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>2084.05634368</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>2017.71014368</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>2049.58674368</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>2117.86374368</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>2116.319543680001</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>2116.319543680001</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>2116.319543680001</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>2116.319543680001</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>2326.00748312</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>2325.318483120001</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>2325.318483120001</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>2395.21368312</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>2382.194883120001</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>2378.564483120001</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>2382.194883120001</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>2396.040883120001</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>2393.920983120001</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>2376.91098312</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>2376.73498312</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>2374.640883120001</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>2374.640883120001</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>2374.640883120001</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>2374.640883120001</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>2374.865983120001</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>2464.903183120001</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>2464.785983120001</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>2464.785983120001</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>2474.919583120001</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>2467.777983120001</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>2490.901383120001</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>2550.689283120001</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>2582.489358900001</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>2555.072823470001</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>2474.964823470001</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>2474.964823470001</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>2474.964823470001</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>2474.964823470001</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>2473.090423470001</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>2480.870323470001</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>2480.769623470001</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>2484.964271660001</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-22 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 BCH ohlcv.xlsx
@@ -4968,7 +4968,7 @@
         <v>-435.1421689499998</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-434.4321689499998</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-394.1724689499998</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-322.5878098</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-322.58327808</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-166.9569427599999</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-166.9569427599999</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-173.8315427599999</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-158.2961427599999</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1366.37023138</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1525.56033138</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1866.03493138</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>2445.30873138</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>2167.24330897</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1878.37669781</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>2105.03379781</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>2235.87399781</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>2259.91489781</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>2159.95540151</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2176.88980151</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>2251.98280151</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>2271.20560151</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>2313.21270151</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2007.07720151</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1941.53090151</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1829.84560151</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1609.511027289999</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1545.588827289999</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1578.42742729</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1575.17612729</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1594.73802729</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1592.73802729</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1612.73802729</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1612.73802729</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1598.14482729</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1626.446527289999</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>2144.49368576</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>2028.86338555</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>2045.00948534</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>2041.25568534</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>2049.33848534</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>2047.58478534</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>2053.14178534</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>2052.55588534</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>1965.44168534</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>2008.58668534</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>2099.34908534</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>2099.34908534</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>2099.34908534</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>2113.63708534</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>2093.70308534</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>2079.42538534</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>2083.01738534</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>2107.25508534</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>2122.25508534</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>2134.75368534</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>2127.38188534</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>2127.38188534</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>2142.38188534</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>2114.34858534</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>2114.40858534</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>2114.40858534</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>2114.40858534</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>2114.66378534</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>2075.26318534</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>2098.11688534</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>2039.07768534</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>2031.962385340001</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>2081.78688534</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>2081.78688534</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>2081.78688534</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>2081.78688534</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>2133.92558534</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>2143.55818534</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>2164.361785340001</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>2167.361785340001</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>2171.53478534</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>2171.53478534</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>2166.86208534</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>2186.54368534</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>2186.54368534</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>2186.54368534</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>2181.44748534</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>2181.43448534</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>2192.765033</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>2192.765033</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>2168.990833</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>2168.990833</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>2170.934733000001</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>2191.380733</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>2191.247433</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>2195.257733</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>2195.257733</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>2195.251433</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>2206.431433</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>2207.433033</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>2203.487933</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>2249.17834368</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>2278.96854368</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>2278.96854368</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>2284.70954368</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>2290.70954368</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>2214.23194368</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>2255.15304368</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>2255.15304368</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>2255.15304368</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>2255.15304368</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>2263.00744368</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>2263.00744368</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>2263.00744368</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>2286.55014368</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>2285.36624368</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>2246.75214368</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>2204.75214368</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>2204.75214368</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>2116.33474368</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>2104.55834368</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>2084.05634368</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>2017.71014368</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>2116.319543680001</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>2116.319543680001</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>2116.319543680001</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>2116.319543680001</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>2110.303543680001</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>2111.139943680001</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>2106.70234368</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>2103.825843680001</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>2104.47144368</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>2328.958983120001</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>2328.958983120001</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>2326.00748312</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>2325.318483120001</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>2325.318483120001</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>2395.21368312</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>2382.194883120001</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>2378.564483120001</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>2382.194883120001</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>2396.040883120001</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>2393.920983120001</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>2376.91098312</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>2376.73498312</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>2464.785983120001</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
